--- a/Shiny/Dati/Diuretico.xlsx
+++ b/Shiny/Dati/Diuretico.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MODUNIVAR\Shiny\Dati\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8961489-FB9B-4F4B-BEDF-868C5CA6936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diuretico" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,8 +83,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,22 +124,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +191,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -189,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -223,9 +260,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,21 +436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -423,139 +461,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>3.5</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C4">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>7.1</v>
-      </c>
-      <c r="C5">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>3.1</v>
-      </c>
-      <c r="C6">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>5.5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>6.8</v>
-      </c>
-      <c r="C8">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C9">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>5.6</v>
-      </c>
-      <c r="C10">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>3.8</v>
-      </c>
-      <c r="C11">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>4.8</v>
-      </c>
-      <c r="C12">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>6.9</v>
-      </c>
-      <c r="C13">
-        <v>6.4</v>
+      <c r="B13" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>